--- a/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint2/Sprint Backlog.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmond\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285CBF3B-5791-4488-ABA3-396F8BB0174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF462A54-03CF-4118-959A-533348E8C1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +85,9 @@
   </si>
   <si>
     <t>Status Options</t>
+  </si>
+  <si>
+    <t>Votação da funcionalidade escolhida</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -233,26 +239,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -305,6 +291,45 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -316,55 +341,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,14 +798,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28F5BD-44A0-4916-BB85-680B9BFFA75D}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.77734375" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
@@ -789,43 +821,43 @@
     </row>
     <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="str">
-        <f>"Escolher voto para funcionalidade a incrementar"</f>
-        <v>Escolher voto para funcionalidade a incrementar</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="18" t="str">
+        <f>"Encontrar #"&amp;B4&amp;" sugestão de funcionalidade"</f>
+        <v>Encontrar #1 sugestão de funcionalidade</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1"/>
@@ -833,17 +865,17 @@
     </row>
     <row r="5" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="str">
-        <f>"Escolher voto para funcionalidade a incrementar"</f>
-        <v>Escolher voto para funcionalidade a incrementar</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="18" t="str">
+        <f t="shared" ref="C5:C13" si="0">"Encontrar #"&amp;B5&amp;" sugestão de funcionalidade"</f>
+        <v>Encontrar #2 sugestão de funcionalidade</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1"/>
@@ -851,17 +883,17 @@
     </row>
     <row r="6" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="str">
-        <f>"Escolher voto para funcionalidade a incrementar"</f>
-        <v>Escolher voto para funcionalidade a incrementar</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #3 sugestão de funcionalidade</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
@@ -869,17 +901,17 @@
     </row>
     <row r="7" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f>"Escolher voto para funcionalidade a incrementar"</f>
-        <v>Escolher voto para funcionalidade a incrementar</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #4 sugestão de funcionalidade</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1"/>
@@ -887,270 +919,195 @@
     </row>
     <row r="8" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="str">
-        <f>"Escolher voto para funcionalidade a incrementar"</f>
-        <v>Escolher voto para funcionalidade a incrementar</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #5 sugestão de funcionalidade</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 1"</f>
-        <v>Sugestão user storie para funcionalidade extra 1</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #6 sugestão de funcionalidade</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 2"</f>
-        <v>Sugestão user storie para funcionalidade extra 2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #7 sugestão de funcionalidade</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 1"</f>
-        <v>Sugestão user storie para funcionalidade extra 1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #8 sugestão de funcionalidade</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 2"</f>
-        <v>Sugestão user storie para funcionalidade extra 2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #9 sugestão de funcionalidade</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 1"</f>
-        <v>Sugestão user storie para funcionalidade extra 1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="C13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Encontrar #10 sugestão de funcionalidade</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 2"</f>
-        <v>Sugestão user storie para funcionalidade extra 2</v>
+      <c r="C14" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 1"</f>
-        <v>Sugestão user storie para funcionalidade extra 1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 2"</f>
-        <v>Sugestão user storie para funcionalidade extra 2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 1"</f>
-        <v>Sugestão user storie para funcionalidade extra 1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="4">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f>"Sugestão user storie para funcionalidade extra 2"</f>
-        <v>Sugestão user storie para funcionalidade extra 2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="4">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="str">
-        <f>C21</f>
-        <v>Escolher voto para melhor user storie</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f>"Escolher voto para melhor user storie"</f>
-        <v>Escolher voto para melhor user storie</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="4">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="str">
-        <f>"Escolher voto para melhor user storie"</f>
-        <v>Escolher voto para melhor user storie</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="4">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="str">
-        <f>"Escolher voto para melhor user storie"</f>
-        <v>Escolher voto para melhor user storie</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="4">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="str">
-        <f>"Escolher voto para melhor user storie"</f>
-        <v>Escolher voto para melhor user storie</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1194,10 +1151,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
